--- a/ONCHO/Entomological survey Survey/Nigeria/2024/taraba/sites.xlsx
+++ b/ONCHO/Entomological survey Survey/Nigeria/2024/taraba/sites.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/304521816ad02a7e/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Entomological survey Survey\Nigeria\2024\taraba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{0B275C5A-FF5E-9C46-95B5-896C3F8F6A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DC87C87-38A0-43BF-9700-7E2F68334917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="26537" windowHeight="15943" xr2:uid="{7BE50F1A-DFCC-4B63-9F45-FF2F2A6DD4D6}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7BE50F1A-DFCC-4B63-9F45-FF2F2A6DD4D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="123">
   <si>
     <t>STATE</t>
   </si>
@@ -239,42 +239,12 @@
     <t>DANDIKULU</t>
   </si>
   <si>
-    <t>Ussa</t>
-  </si>
-  <si>
     <t>A12</t>
   </si>
   <si>
     <t>MEDEL PREDICTED STITES</t>
   </si>
   <si>
-    <t>Kurmi</t>
-  </si>
-  <si>
-    <t>Wukari</t>
-  </si>
-  <si>
-    <t>Sardauna</t>
-  </si>
-  <si>
-    <t>Ibi</t>
-  </si>
-  <si>
-    <t>Gashaka</t>
-  </si>
-  <si>
-    <t>Gangweren</t>
-  </si>
-  <si>
-    <t>Bali</t>
-  </si>
-  <si>
-    <t>Karim Lamido</t>
-  </si>
-  <si>
-    <t>Gassol</t>
-  </si>
-  <si>
     <t>SITE IDS</t>
   </si>
   <si>
@@ -432,6 +402,12 @@
   </si>
   <si>
     <t>TAR_SAR_M_052</t>
+  </si>
+  <si>
+    <t>USSA</t>
+  </si>
+  <si>
+    <t>GANGWEREN</t>
   </si>
 </sst>
 </file>
@@ -621,7 +597,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -650,11 +626,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -668,9 +666,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -708,7 +706,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -814,7 +812,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -956,7 +954,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -964,26 +962,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD83EFE8-B67B-49E6-A276-5C214FFAD255}">
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:R53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:I1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.08203125" customWidth="1"/>
-    <col min="2" max="2" width="25.2890625" customWidth="1"/>
-    <col min="3" max="3" width="20.04296875" customWidth="1"/>
-    <col min="4" max="4" width="20.84765625" customWidth="1"/>
-    <col min="5" max="5" width="18.6953125" customWidth="1"/>
-    <col min="6" max="6" width="17.08203125" customWidth="1"/>
-    <col min="7" max="7" width="21.38671875" customWidth="1"/>
-    <col min="8" max="8" width="26.09765625" customWidth="1"/>
-    <col min="9" max="9" width="20.4453125" style="18" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="26.140625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" style="18" customWidth="1"/>
+    <col min="12" max="12" width="17.140625" customWidth="1"/>
+    <col min="14" max="14" width="17.140625" customWidth="1"/>
+    <col min="15" max="15" width="25.28515625" customWidth="1"/>
+    <col min="17" max="17" width="25.28515625" customWidth="1"/>
+    <col min="18" max="18" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1009,10 +1012,25 @@
         <v>7</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1036,10 +1054,25 @@
         <v>11</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1063,10 +1096,22 @@
         <v>11</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1090,10 +1135,22 @@
         <v>11</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1117,10 +1174,22 @@
         <v>11</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1144,10 +1213,22 @@
         <v>11</v>
       </c>
       <c r="I6" s="17" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1171,10 +1252,22 @@
         <v>11</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -1198,10 +1291,22 @@
         <v>11</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1225,10 +1330,22 @@
         <v>11</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1252,10 +1369,22 @@
         <v>11</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -1279,10 +1408,22 @@
         <v>11</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1304,10 +1445,22 @@
         <v>25</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1331,10 +1484,22 @@
         <v>11</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -1358,10 +1523,22 @@
         <v>11</v>
       </c>
       <c r="I14" s="17" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="R14" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
@@ -1385,10 +1562,22 @@
         <v>11</v>
       </c>
       <c r="I15" s="17" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
@@ -1410,10 +1599,22 @@
         <v>25</v>
       </c>
       <c r="I16" s="17" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
@@ -1437,10 +1638,16 @@
         <v>11</v>
       </c>
       <c r="I17" s="17" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
@@ -1464,10 +1671,16 @@
         <v>11</v>
       </c>
       <c r="I18" s="17" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
@@ -1491,10 +1704,16 @@
         <v>11</v>
       </c>
       <c r="I19" s="17" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
@@ -1518,10 +1737,16 @@
         <v>11</v>
       </c>
       <c r="I20" s="17" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
@@ -1545,10 +1770,16 @@
         <v>11</v>
       </c>
       <c r="I21" s="17" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
@@ -1572,10 +1803,16 @@
         <v>11</v>
       </c>
       <c r="I22" s="17" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
@@ -1599,10 +1836,16 @@
         <v>11</v>
       </c>
       <c r="I23" s="17" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="R23" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>8</v>
       </c>
@@ -1626,10 +1869,16 @@
         <v>11</v>
       </c>
       <c r="I24" s="17" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>8</v>
       </c>
@@ -1653,10 +1902,16 @@
         <v>11</v>
       </c>
       <c r="I25" s="17" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>8</v>
       </c>
@@ -1680,10 +1935,16 @@
         <v>11</v>
       </c>
       <c r="I26" s="17" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>8</v>
       </c>
@@ -1707,10 +1968,16 @@
         <v>11</v>
       </c>
       <c r="I27" s="17" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R27" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
@@ -1734,10 +2001,16 @@
         <v>11</v>
       </c>
       <c r="I28" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>8</v>
       </c>
@@ -1761,10 +2034,16 @@
         <v>11</v>
       </c>
       <c r="I29" s="17" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="R29" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
@@ -1786,10 +2065,16 @@
         <v>25</v>
       </c>
       <c r="I30" s="17" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R30" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>8</v>
       </c>
@@ -1813,10 +2098,16 @@
         <v>11</v>
       </c>
       <c r="I31" s="17" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+      <c r="Q31" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R31" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>8</v>
       </c>
@@ -1840,10 +2131,16 @@
         <v>11</v>
       </c>
       <c r="I32" s="17" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="R32" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>8</v>
       </c>
@@ -1867,10 +2164,16 @@
         <v>11</v>
       </c>
       <c r="I33" s="17" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="Q33" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R33" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>8</v>
       </c>
@@ -1894,10 +2197,16 @@
         <v>11</v>
       </c>
       <c r="I34" s="17" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="R34" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>8</v>
       </c>
@@ -1921,10 +2230,16 @@
         <v>11</v>
       </c>
       <c r="I35" s="17" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="Q35" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R35" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>8</v>
       </c>
@@ -1948,10 +2263,16 @@
         <v>11</v>
       </c>
       <c r="I36" s="17" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+      <c r="Q36" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="R36" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>8</v>
       </c>
@@ -1973,10 +2294,16 @@
         <v>25</v>
       </c>
       <c r="I37" s="17" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="Q37" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="R37" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>8</v>
       </c>
@@ -2000,10 +2327,16 @@
         <v>11</v>
       </c>
       <c r="I38" s="17" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="R38" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>8</v>
       </c>
@@ -2027,10 +2360,16 @@
         <v>11</v>
       </c>
       <c r="I39" s="17" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="Q39" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="R39" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>8</v>
       </c>
@@ -2054,10 +2393,16 @@
         <v>11</v>
       </c>
       <c r="I40" s="17" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="Q40" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="R40" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>8</v>
       </c>
@@ -2079,10 +2424,16 @@
         <v>25</v>
       </c>
       <c r="I41" s="17" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="Q41" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="R41" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>8</v>
       </c>
@@ -2106,10 +2457,16 @@
         <v>11</v>
       </c>
       <c r="I42" s="17" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="Q42" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="R42" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>8</v>
       </c>
@@ -2133,18 +2490,24 @@
         <v>11</v>
       </c>
       <c r="I43" s="17" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+      <c r="Q43" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="R43" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B44" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C44" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="D44" s="7">
         <v>7.2947152690000703</v>
@@ -2155,21 +2518,27 @@
       <c r="F44" s="4"/>
       <c r="G44" s="7"/>
       <c r="H44" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I44" s="17" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+      <c r="Q44" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="R44" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="D45" s="7">
         <v>6.9672152690000697</v>
@@ -2181,18 +2550,24 @@
       <c r="G45" s="7"/>
       <c r="H45" s="20"/>
       <c r="I45" s="17" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+      <c r="Q45" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="R45" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D46" s="7">
         <v>8.0297152690000697</v>
@@ -2204,18 +2579,24 @@
       <c r="G46" s="7"/>
       <c r="H46" s="20"/>
       <c r="I46" s="17" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+      <c r="Q46" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="R46" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="D47" s="7">
         <v>6.9447152690000697</v>
@@ -2227,18 +2608,24 @@
       <c r="G47" s="7"/>
       <c r="H47" s="20"/>
       <c r="I47" s="17" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="R47" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="D48" s="7">
         <v>8.1480486023334002</v>
@@ -2250,18 +2637,24 @@
       <c r="G48" s="7"/>
       <c r="H48" s="20"/>
       <c r="I48" s="17" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+      <c r="Q48" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="R48" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>74</v>
+        <v>122</v>
       </c>
       <c r="D49" s="7">
         <v>7.7763819356667403</v>
@@ -2273,18 +2666,24 @@
       <c r="G49" s="7"/>
       <c r="H49" s="20"/>
       <c r="I49" s="17" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="Q49" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="R49" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="D50" s="7">
         <v>7.9597152690000703</v>
@@ -2296,18 +2695,24 @@
       <c r="G50" s="7"/>
       <c r="H50" s="20"/>
       <c r="I50" s="17" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+      <c r="Q50" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="R50" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="D51" s="7">
         <v>9.4072152690000692</v>
@@ -2319,18 +2724,24 @@
       <c r="G51" s="7"/>
       <c r="H51" s="20"/>
       <c r="I51" s="17" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+      <c r="Q51" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="R51" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="D52" s="7">
         <v>8.5763819356667401</v>
@@ -2342,18 +2753,20 @@
       <c r="G52" s="7"/>
       <c r="H52" s="20"/>
       <c r="I52" s="17" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+      <c r="Q52" s="22"/>
+      <c r="R52" s="22"/>
+    </row>
+    <row r="53" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="D53" s="7">
         <v>6.7388819356667398</v>
@@ -2365,14 +2778,21 @@
       <c r="G53" s="7"/>
       <c r="H53" s="21"/>
       <c r="I53" s="17" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:I53" xr:uid="{FD83EFE8-B67B-49E6-A276-5C214FFAD255}"/>
-  <mergeCells count="1">
-    <mergeCell ref="H44:H53"/>
-  </mergeCells>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="Q2:R56">
+    <sortCondition ref="Q2:Q56"/>
+    <sortCondition ref="R2:R56"/>
+  </sortState>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R1:R52 R57:R1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2622,9 +3042,28 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4204C51D-5396-4B3A-964D-08469CEFFF45}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4204C51D-5396-4B3A-964D-08469CEFFF45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="92042fd9-f4c9-49ed-97f1-ba485e322b1e"/>
+    <ds:schemaRef ds:uri="744cc826-a471-4feb-879c-6424ce8a761f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{585D155A-A318-43F1-8058-F6E595DC2A56}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{585D155A-A318-43F1-8058-F6E595DC2A56}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>